--- a/ege19/46.xlsx
+++ b/ege19/46.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman\PycharmProjects\leonenko\ege19\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D56E0EB-AD2F-4CCF-AB36-B4066853D2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="144525" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="1">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -125,7 +119,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -160,7 +154,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -337,18 +331,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GQ1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="AN6" sqref="AN6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,108 +372,108 @@
       <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="I1">
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1">
         <v>4</v>
       </c>
-      <c r="J1">
+      <c r="M1">
         <v>4</v>
       </c>
-      <c r="K1">
+      <c r="N1">
         <v>3</v>
       </c>
-      <c r="L1">
+      <c r="O1">
+        <v>1</v>
+      </c>
+      <c r="P1">
+        <v>1</v>
+      </c>
+      <c r="Q1">
+        <v>1</v>
+      </c>
+      <c r="R1">
+        <v>1</v>
+      </c>
+      <c r="S1">
+        <v>1</v>
+      </c>
+      <c r="T1">
+        <v>1</v>
+      </c>
+      <c r="U1">
+        <v>1</v>
+      </c>
+      <c r="V1">
+        <v>1</v>
+      </c>
+      <c r="W1">
+        <v>1</v>
+      </c>
+      <c r="X1">
+        <v>1</v>
+      </c>
+      <c r="Y1">
+        <v>1</v>
+      </c>
+      <c r="Z1">
+        <v>1</v>
+      </c>
+      <c r="AA1">
+        <v>1</v>
+      </c>
+      <c r="AB1">
+        <v>1</v>
+      </c>
+      <c r="AC1">
+        <v>1</v>
+      </c>
+      <c r="AD1">
+        <v>1</v>
+      </c>
+      <c r="AE1">
+        <v>1</v>
+      </c>
+      <c r="AF1">
+        <v>1</v>
+      </c>
+      <c r="AG1">
+        <v>1</v>
+      </c>
+      <c r="AH1">
+        <v>1</v>
+      </c>
+      <c r="AI1">
+        <v>1</v>
+      </c>
+      <c r="AJ1">
+        <v>1</v>
+      </c>
+      <c r="AK1">
+        <v>1</v>
+      </c>
+      <c r="AL1">
+        <v>4</v>
+      </c>
+      <c r="AM1">
         <v>3</v>
       </c>
-      <c r="M1">
+      <c r="AN1">
+        <v>3</v>
+      </c>
+      <c r="AO1">
         <v>2</v>
       </c>
-      <c r="N1">
+      <c r="AP1">
         <v>2</v>
       </c>
-      <c r="O1">
-        <v>1</v>
-      </c>
-      <c r="P1">
-        <v>1</v>
-      </c>
-      <c r="Q1">
-        <v>1</v>
-      </c>
-      <c r="R1">
-        <v>1</v>
-      </c>
-      <c r="S1">
-        <v>1</v>
-      </c>
-      <c r="T1">
-        <v>1</v>
-      </c>
-      <c r="U1">
-        <v>1</v>
-      </c>
-      <c r="V1">
-        <v>1</v>
-      </c>
-      <c r="W1">
-        <v>1</v>
-      </c>
-      <c r="X1">
-        <v>1</v>
-      </c>
-      <c r="Y1">
-        <v>1</v>
-      </c>
-      <c r="Z1">
-        <v>1</v>
-      </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>1</v>
-      </c>
-      <c r="AC1">
-        <v>1</v>
-      </c>
-      <c r="AD1">
-        <v>1</v>
-      </c>
-      <c r="AE1">
-        <v>1</v>
-      </c>
-      <c r="AF1">
-        <v>1</v>
-      </c>
-      <c r="AG1">
-        <v>1</v>
-      </c>
-      <c r="AH1">
-        <v>1</v>
-      </c>
-      <c r="AI1">
-        <v>1</v>
-      </c>
-      <c r="AJ1">
-        <v>1</v>
-      </c>
-      <c r="AK1">
-        <v>1</v>
-      </c>
-      <c r="AL1">
-        <v>1</v>
-      </c>
-      <c r="AM1">
-        <v>1</v>
-      </c>
-      <c r="AN1">
-        <v>1</v>
-      </c>
-      <c r="AO1">
-        <v>1</v>
-      </c>
-      <c r="AP1">
-        <v>1</v>
-      </c>
       <c r="AQ1">
         <v>1</v>
       </c>
@@ -691,265 +685,265 @@
         <v>0</v>
       </c>
       <c r="DI1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="DJ1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="DK1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="DL1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="DM1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="DN1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="DO1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="DP1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="DQ1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="DR1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="DS1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="DT1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="DU1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="DV1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="DW1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="DX1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="DY1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="DZ1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="EA1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="EB1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="EC1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="ED1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="EE1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="EF1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="EG1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="EH1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="EI1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="EJ1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="EK1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="EL1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="EM1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="EN1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="EO1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="EP1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="EQ1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="ER1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="ES1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="ET1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="EU1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="EV1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="EW1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="EX1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="EY1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="EZ1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="FA1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="FB1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="FC1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="FD1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="FE1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="FF1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="FG1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="FH1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="FI1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="FJ1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="FK1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="FL1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="FM1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="FN1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="FO1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="FP1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="FQ1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="FR1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="FS1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="FT1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="FU1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="FV1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="FW1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="FX1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="FY1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="FZ1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="GA1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="GB1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="GC1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="GD1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="GE1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="GF1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="GG1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="GH1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="GI1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="GJ1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="GK1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="GL1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="GM1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="GN1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="GO1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="GP1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="GQ1">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
